--- a/10v10/11/USQ-Cup/TXST_CAL_swiss.xlsx
+++ b/10v10/11/USQ-Cup/TXST_CAL_swiss.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\11\USQ-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\11\USQ-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D980680-CF4F-48CF-B9DA-5D53C8792EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA002AD5-71C3-4693-9AC4-3FF2ED5C6C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
   <si>
     <t>A</t>
   </si>
@@ -159,9 +159,6 @@
     <t>YA23</t>
   </si>
   <si>
-    <t>82,?</t>
-  </si>
-  <si>
     <t>6,74</t>
   </si>
   <si>
@@ -171,13 +168,208 @@
     <t>G</t>
   </si>
   <si>
-    <t>R10</t>
+    <t>B?</t>
   </si>
   <si>
-    <t>YB8</t>
+    <t>0007</t>
   </si>
   <si>
-    <t>B?</t>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0239</t>
+  </si>
+  <si>
+    <t>0252</t>
+  </si>
+  <si>
+    <t>0337</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>0418</t>
+  </si>
+  <si>
+    <t>0451</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>0530</t>
+  </si>
+  <si>
+    <t>0609</t>
+  </si>
+  <si>
+    <t>0616</t>
+  </si>
+  <si>
+    <t>0635</t>
+  </si>
+  <si>
+    <t>0649</t>
+  </si>
+  <si>
+    <t>0727</t>
+  </si>
+  <si>
+    <t>0743</t>
+  </si>
+  <si>
+    <t>0834</t>
+  </si>
+  <si>
+    <t>0856</t>
+  </si>
+  <si>
+    <t>0925</t>
+  </si>
+  <si>
+    <t>0954</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>82,3</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>R83</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>2135</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>YB8,R?</t>
+  </si>
+  <si>
+    <t>2647</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>2704</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>2822</t>
+  </si>
+  <si>
+    <t>2826</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>2919</t>
+  </si>
+  <si>
+    <t>2929</t>
   </si>
 </sst>
 </file>
@@ -194,27 +386,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -469,10 +666,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,17 +681,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +909,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -742,21 +939,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -769,142 +966,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="23">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="27">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>18</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="29" t="str">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="28" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="30" t="str">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="19" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>210*</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="24"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="27">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>10</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="29" t="str">
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="28" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="30" t="str">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="19" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>100</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="24"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -942,42 +1139,58 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -997,8 +1210,8 @@
       <c r="E8" s="10">
         <v>20</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>12</v>
+      <c r="F8" s="11">
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>5</v>
@@ -1013,14 +1226,14 @@
       <c r="K8" s="10">
         <v>88</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>12</v>
+      <c r="L8" s="11">
+        <v>32</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>12</v>
+      <c r="N8" s="10">
+        <v>52</v>
       </c>
       <c r="O8" s="11">
         <v>4</v>
@@ -1082,44 +1295,60 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="P10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1146,8 +1375,8 @@
       <c r="H11" s="10">
         <v>88</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
+      <c r="I11" s="11">
+        <v>2</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>39</v>
@@ -1159,8 +1388,8 @@
       <c r="M11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>12</v>
+      <c r="N11" s="10">
+        <v>35</v>
       </c>
       <c r="O11" s="11">
         <v>7</v>
@@ -1171,8 +1400,8 @@
       <c r="Q11" s="10">
         <v>83</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>12</v>
+      <c r="R11" s="11">
+        <v>16</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>5</v>
@@ -1226,44 +1455,60 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1301,14 +1546,12 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N14" s="10">
         <v>7</v>
       </c>
-      <c r="O14" s="11">
-        <v>22</v>
-      </c>
+      <c r="O14" s="11"/>
       <c r="P14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1372,42 +1615,58 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1419,7 +1678,7 @@
         <v>74</v>
       </c>
       <c r="C17" s="11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>11</v>
@@ -1461,14 +1720,14 @@
       <c r="Q17" s="10">
         <v>88</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>12</v>
+      <c r="R17" s="11">
+        <v>14</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>12</v>
+      <c r="T17" s="10">
+        <v>6</v>
       </c>
       <c r="U17" s="11">
         <v>74</v>
@@ -1476,8 +1735,8 @@
       <c r="V17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W17" s="10" t="s">
-        <v>12</v>
+      <c r="W17" s="10">
+        <v>13</v>
       </c>
       <c r="X17" s="11">
         <v>88</v>
@@ -1518,42 +1777,58 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1592,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>7</v>
@@ -1668,44 +1943,60 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="V22" s="6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
@@ -1717,10 +2008,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E23" s="10">
         <v>41</v>
@@ -1729,15 +2020,15 @@
       <c r="G23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>12</v>
+      <c r="H23" s="10">
+        <v>6</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K23" s="10">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="L23" s="11">
         <v>3</v>
@@ -1752,7 +2043,7 @@
         <v>74</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>12</v>
@@ -1768,8 +2059,8 @@
       <c r="V23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="W23" s="10" t="s">
-        <v>12</v>
+      <c r="W23" s="10">
+        <v>3</v>
       </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="1"/>
@@ -1808,44 +2099,60 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="S25" s="3" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
@@ -1857,7 +2164,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>8</v>
@@ -1890,14 +2197,14 @@
       <c r="N26" s="10">
         <v>21</v>
       </c>
-      <c r="O26" s="11" t="s">
-        <v>12</v>
+      <c r="O26" s="11">
+        <v>4</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="10" t="s">
-        <v>12</v>
+      <c r="Q26" s="10">
+        <v>52</v>
       </c>
       <c r="R26" s="11">
         <v>88</v>
@@ -1917,8 +2224,8 @@
       <c r="W26" s="10">
         <v>23</v>
       </c>
-      <c r="X26" s="11" t="s">
-        <v>12</v>
+      <c r="X26" s="11">
+        <v>52</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -1956,42 +2263,58 @@
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U28" s="5"/>
+      <c r="U28" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="X28" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
@@ -1999,18 +2322,18 @@
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>12</v>
+      <c r="B29" s="10">
+        <v>4</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
+      <c r="E29" s="10">
+        <v>52</v>
+      </c>
+      <c r="F29" s="11">
+        <v>17</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>2</v>
@@ -2040,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>74</v>
+      </c>
+      <c r="R29" s="11">
+        <v>88</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>3</v>
@@ -29119,13 +29442,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29135,6 +29451,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29149,7 +29472,7 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
